--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>MM</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>upgrade crystal mutiplyer</t>
+  </si>
+  <si>
+    <t>Cost Metal</t>
+  </si>
+  <si>
+    <t>Cost Crystal</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,9 +545,10 @@
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -556,8 +563,22 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,8 +603,14 @@
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -605,8 +632,14 @@
       <c r="L3">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,7 +662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -652,7 +685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,7 +708,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -698,7 +731,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -721,7 +754,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -744,7 +777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -767,7 +800,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -790,7 +823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
@@ -1044,10 +1077,11 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A19:L19"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A34:L34"/>
+    <mergeCell ref="M1:X1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
